--- a/AMRplasmid/Supplementary_Table_2.xlsx
+++ b/AMRplasmid/Supplementary_Table_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniellei/Documents/github/TyphoidGenomicsConsortiumMykrobe/AMRplasmid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA890C0C-1B4D-884E-B032-64E0E9B328D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647F68B9-E7AE-8949-8B6E-C653543C0F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16040" xr2:uid="{259DF885-EDA4-6A4E-82D9-9E1480C682D1}"/>
+    <workbookView xWindow="41780" yWindow="760" windowWidth="26840" windowHeight="23260" xr2:uid="{259DF885-EDA4-6A4E-82D9-9E1480C682D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -605,7 +605,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -638,14 +638,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -985,7 +988,7 @@
   <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1119,6 +1122,10 @@
       <c r="G5" s="4">
         <v>1</v>
       </c>
+      <c r="H5" s="15">
+        <f>(F5+F6+F7)/(F5+F6+F7+G5+G6+G7)</f>
+        <v>0.99991661107404939</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C6" s="4" t="s">
@@ -1136,6 +1143,7 @@
       <c r="G6" s="4">
         <v>0</v>
       </c>
+      <c r="H6" s="15"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C7" s="4" t="s">
@@ -1153,6 +1161,7 @@
       <c r="G7" s="4">
         <v>0</v>
       </c>
+      <c r="H7" s="15"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
@@ -1184,22 +1193,22 @@
       <c r="B9" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="12" t="s">
         <v>33</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="12">
         <v>669</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="12">
         <v>2</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="13">
         <f>(F9+F13)/(F9+G9+F13+G13)</f>
         <v>0.9997498540815476</v>
       </c>
@@ -1207,36 +1216,36 @@
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
       <c r="E10" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="13"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13" t="s">
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="13"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="13"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="11"/>
@@ -1256,29 +1265,29 @@
       <c r="G13" s="7">
         <v>1</v>
       </c>
-      <c r="H13" s="12"/>
+      <c r="H13" s="13"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="11"/>
       <c r="B14" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="12">
         <v>20</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G14" s="12">
         <v>1</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="13">
         <f>(F14+F16)/(F14+G14+F16+G16)</f>
         <v>0.99991661107404939</v>
       </c>
@@ -1286,12 +1295,12 @@
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="13"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="11"/>
@@ -1311,7 +1320,7 @@
       <c r="G16" s="7">
         <v>0</v>
       </c>
-      <c r="H16" s="12"/>
+      <c r="H16" s="13"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
@@ -1336,7 +1345,7 @@
         <f>3602-F17</f>
         <v>9</v>
       </c>
-      <c r="H17" s="12">
+      <c r="H17" s="13">
         <f>(F17+F18)/SUM(F17:G18)</f>
         <v>0.99891594396264172</v>
       </c>
@@ -1360,7 +1369,7 @@
       <c r="G18" s="4">
         <v>4</v>
       </c>
-      <c r="H18" s="12"/>
+      <c r="H18" s="13"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="11"/>
@@ -1428,7 +1437,7 @@
       <c r="G21" s="4">
         <v>0</v>
       </c>
-      <c r="H21" s="12">
+      <c r="H21" s="13">
         <f>(F21+F22)/SUM(F21:G22)</f>
         <v>0.99891594396264172</v>
       </c>
@@ -1451,7 +1460,7 @@
       <c r="G22" s="4">
         <v>13</v>
       </c>
-      <c r="H22" s="12"/>
+      <c r="H22" s="13"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="11"/>
@@ -1517,7 +1526,7 @@
       <c r="G25" s="4">
         <v>1</v>
       </c>
-      <c r="H25" s="12">
+      <c r="H25" s="13">
         <f>SUM(F25:F26)/SUM(F25:G26)</f>
         <v>0.99958305537024683</v>
       </c>
@@ -1540,7 +1549,7 @@
       <c r="G26" s="4">
         <v>4</v>
       </c>
-      <c r="H26" s="12"/>
+      <c r="H26" s="13"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="11"/>
@@ -1562,7 +1571,7 @@
       <c r="G27" s="4">
         <v>4</v>
       </c>
-      <c r="H27" s="12">
+      <c r="H27" s="13">
         <f>SUM(F27:F29)/SUM(F27:G29)</f>
         <v>0.99949966644429622</v>
       </c>
@@ -1585,7 +1594,7 @@
       <c r="G28" s="4">
         <v>0</v>
       </c>
-      <c r="H28" s="12"/>
+      <c r="H28" s="13"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="11"/>
@@ -1605,7 +1614,7 @@
       <c r="G29" s="4">
         <v>2</v>
       </c>
-      <c r="H29" s="12"/>
+      <c r="H29" s="13"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="11"/>
@@ -1634,19 +1643,19 @@
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="12" t="s">
         <v>89</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="F31" s="13">
+      <c r="F31" s="12">
         <v>71</v>
       </c>
-      <c r="G31" s="13">
+      <c r="G31" s="12">
         <v>0</v>
       </c>
       <c r="H31" s="14">
@@ -1656,31 +1665,31 @@
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
       <c r="E32" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
       <c r="H32" s="14"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="12" t="s">
         <v>93</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F33" s="13">
+      <c r="F33" s="12">
         <v>25</v>
       </c>
-      <c r="G33" s="13">
+      <c r="G33" s="12">
         <v>0</v>
       </c>
       <c r="H33" s="14">
@@ -1690,13 +1699,13 @@
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
       <c r="E34" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
       <c r="H34" s="14"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -1725,22 +1734,22 @@
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D36" s="12" t="s">
         <v>73</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="F36" s="13">
+      <c r="F36" s="12">
         <v>10969</v>
       </c>
-      <c r="G36" s="13">
+      <c r="G36" s="12">
         <v>4</v>
       </c>
-      <c r="H36" s="12">
+      <c r="H36" s="13">
         <f>F36/SUM(F36:G37)</f>
         <v>0.99963546887815546</v>
       </c>
@@ -1748,14 +1757,14 @@
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
       <c r="E37" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="13"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="11"/>
@@ -1777,7 +1786,7 @@
       <c r="G38" s="4">
         <v>5</v>
       </c>
-      <c r="H38" s="12">
+      <c r="H38" s="13">
         <f>SUM(F38:F40)/SUM(F38:G40)</f>
         <v>0.9993044083123207</v>
       </c>
@@ -1800,7 +1809,7 @@
       <c r="G39" s="4">
         <v>0</v>
       </c>
-      <c r="H39" s="12"/>
+      <c r="H39" s="13"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="11"/>
@@ -1821,7 +1830,7 @@
       <c r="G40" s="4">
         <v>3</v>
       </c>
-      <c r="H40" s="12"/>
+      <c r="H40" s="13"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="11"/>
@@ -1843,7 +1852,7 @@
       <c r="G41" s="4">
         <v>7</v>
       </c>
-      <c r="H41" s="12">
+      <c r="H41" s="13">
         <f>SUM(F41:F43)/SUM(F41:G43)</f>
         <v>0.99858250646210289</v>
       </c>
@@ -1866,7 +1875,7 @@
       <c r="G42" s="4">
         <v>9</v>
       </c>
-      <c r="H42" s="12"/>
+      <c r="H42" s="13"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="11"/>
@@ -1886,7 +1895,7 @@
       <c r="G43" s="4">
         <v>1</v>
       </c>
-      <c r="H43" s="12"/>
+      <c r="H43" s="13"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="11"/>
@@ -1908,7 +1917,7 @@
       <c r="G44" s="4">
         <v>0</v>
       </c>
-      <c r="H44" s="12">
+      <c r="H44" s="13">
         <f>SUM(F44:F46)/SUM(F44:G46)</f>
         <v>1</v>
       </c>
@@ -1931,7 +1940,7 @@
       <c r="G45" s="4">
         <v>0</v>
       </c>
-      <c r="H45" s="12"/>
+      <c r="H45" s="13"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="11"/>
@@ -1951,7 +1960,7 @@
       <c r="G46" s="4">
         <v>0</v>
       </c>
-      <c r="H46" s="12"/>
+      <c r="H46" s="13"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="s">
@@ -1975,7 +1984,7 @@
       <c r="G47" s="4">
         <v>16</v>
       </c>
-      <c r="H47" s="12">
+      <c r="H47" s="13">
         <f>SUM(F47:F48)/SUM(F47:G48)</f>
         <v>0.99824883255503671</v>
       </c>
@@ -1999,7 +2008,7 @@
       <c r="G48" s="4">
         <v>5</v>
       </c>
-      <c r="H48" s="12"/>
+      <c r="H48" s="13"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="11"/>
@@ -2021,7 +2030,7 @@
       <c r="G49" s="4">
         <v>161</v>
       </c>
-      <c r="H49" s="12">
+      <c r="H49" s="13">
         <f>SUM(F49:F50)/SUM(F49:G50)</f>
         <v>0.98557371581054032</v>
       </c>
@@ -2044,7 +2053,7 @@
       <c r="G50" s="4">
         <v>12</v>
       </c>
-      <c r="H50" s="12"/>
+      <c r="H50" s="13"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="11" t="s">
@@ -2068,7 +2077,7 @@
       <c r="G51" s="4">
         <v>2</v>
       </c>
-      <c r="H51" s="12">
+      <c r="H51" s="13">
         <f>SUM(F51:F61)/SUM(F51:G61)</f>
         <v>0.99817745008698533</v>
       </c>
@@ -2091,7 +2100,7 @@
       <c r="G52" s="4">
         <v>1</v>
       </c>
-      <c r="H52" s="12"/>
+      <c r="H52" s="13"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="11"/>
@@ -2111,7 +2120,7 @@
       <c r="G53" s="4">
         <v>9</v>
       </c>
-      <c r="H53" s="12"/>
+      <c r="H53" s="13"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="11"/>
@@ -2131,7 +2140,7 @@
       <c r="G54" s="4">
         <v>1</v>
       </c>
-      <c r="H54" s="12"/>
+      <c r="H54" s="13"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="11"/>
@@ -2151,7 +2160,7 @@
       <c r="G55" s="4">
         <v>0</v>
       </c>
-      <c r="H55" s="12"/>
+      <c r="H55" s="13"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="11"/>
@@ -2171,7 +2180,7 @@
       <c r="G56" s="4">
         <v>0</v>
       </c>
-      <c r="H56" s="12"/>
+      <c r="H56" s="13"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="11"/>
@@ -2191,63 +2200,63 @@
       <c r="G57" s="4">
         <v>0</v>
       </c>
-      <c r="H57" s="12"/>
+      <c r="H57" s="13"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
-      <c r="C58" s="13" t="s">
+      <c r="C58" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="D58" s="13" t="s">
+      <c r="D58" s="12" t="s">
         <v>160</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="F58" s="13">
+      <c r="F58" s="12">
         <v>8283</v>
       </c>
-      <c r="G58" s="13">
+      <c r="G58" s="12">
         <v>9</v>
       </c>
-      <c r="H58" s="12"/>
+      <c r="H58" s="13"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
       <c r="E59" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="F59" s="13"/>
-      <c r="G59" s="13"/>
-      <c r="H59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="13"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="13"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
       <c r="E60" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="F60" s="13"/>
-      <c r="G60" s="13"/>
-      <c r="H60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="13"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="13"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
       <c r="E61" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="F61" s="13"/>
-      <c r="G61" s="13"/>
-      <c r="H61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="13"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
@@ -2277,32 +2286,31 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="65">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A9:A16"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="F9:F12"/>
-    <mergeCell ref="G9:G12"/>
-    <mergeCell ref="H9:H13"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="B30:B37"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="H19:H20"/>
+  <mergeCells count="66">
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="A51:A61"/>
+    <mergeCell ref="B51:B61"/>
+    <mergeCell ref="H51:H61"/>
+    <mergeCell ref="C58:C61"/>
+    <mergeCell ref="D58:D61"/>
+    <mergeCell ref="F58:F61"/>
+    <mergeCell ref="G58:G61"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="H41:H43"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="H44:H46"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="A21:A46"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="H25:H26"/>
     <mergeCell ref="B38:B40"/>
     <mergeCell ref="H38:H40"/>
     <mergeCell ref="C31:C32"/>
@@ -2319,30 +2327,32 @@
     <mergeCell ref="D36:D37"/>
     <mergeCell ref="F36:F37"/>
     <mergeCell ref="G36:G37"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="B30:B37"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="H19:H20"/>
     <mergeCell ref="H36:H37"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="H41:H43"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="H44:H46"/>
-    <mergeCell ref="A47:A50"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="A21:A46"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="A51:A61"/>
-    <mergeCell ref="B51:B61"/>
-    <mergeCell ref="H51:H61"/>
-    <mergeCell ref="C58:C61"/>
-    <mergeCell ref="D58:D61"/>
-    <mergeCell ref="F58:F61"/>
-    <mergeCell ref="G58:G61"/>
+    <mergeCell ref="F9:F12"/>
+    <mergeCell ref="G9:G12"/>
+    <mergeCell ref="H9:H13"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A9:A16"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/AMRplasmid/Supplementary_Table_2.xlsx
+++ b/AMRplasmid/Supplementary_Table_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniellei/Documents/github/TyphoidGenomicsConsortiumMykrobe/AMRplasmid/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katholt/Documents/GitHub/TyphoidGenomicsConsortiumMykrobe/AMRplasmid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647F68B9-E7AE-8949-8B6E-C653543C0F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A28CCD-C972-C640-ADFE-FB1930581D15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41780" yWindow="760" windowWidth="26840" windowHeight="23260" xr2:uid="{259DF885-EDA4-6A4E-82D9-9E1480C682D1}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{259DF885-EDA4-6A4E-82D9-9E1480C682D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -605,7 +605,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -638,17 +638,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -988,7 +985,7 @@
   <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1050,7 +1047,7 @@
       <c r="G2" s="4">
         <v>8</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="12">
         <f>SUM(F2:F3)/SUM(F2:G3)</f>
         <v>0.99716477651767843</v>
       </c>
@@ -1073,7 +1070,7 @@
       <c r="G3" s="4">
         <v>26</v>
       </c>
-      <c r="H3" s="4"/>
+      <c r="H3" s="12"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="11"/>
@@ -1122,7 +1119,7 @@
       <c r="G5" s="4">
         <v>1</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="12">
         <f>(F5+F6+F7)/(F5+F6+F7+G5+G6+G7)</f>
         <v>0.99991661107404939</v>
       </c>
@@ -1143,7 +1140,7 @@
       <c r="G6" s="4">
         <v>0</v>
       </c>
-      <c r="H6" s="15"/>
+      <c r="H6" s="12"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C7" s="4" t="s">
@@ -1161,7 +1158,7 @@
       <c r="G7" s="4">
         <v>0</v>
       </c>
-      <c r="H7" s="15"/>
+      <c r="H7" s="12"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
@@ -1193,22 +1190,22 @@
       <c r="B9" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="13" t="s">
         <v>33</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="13">
         <v>669</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="13">
         <v>2</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="12">
         <f>(F9+F13)/(F9+G9+F13+G13)</f>
         <v>0.9997498540815476</v>
       </c>
@@ -1216,36 +1213,36 @@
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
       <c r="E10" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="12"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12" t="s">
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="12"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="12"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="11"/>
@@ -1265,29 +1262,29 @@
       <c r="G13" s="7">
         <v>1</v>
       </c>
-      <c r="H13" s="13"/>
+      <c r="H13" s="12"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="11"/>
       <c r="B14" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="13">
         <v>20</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="13">
         <v>1</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="12">
         <f>(F14+F16)/(F14+G14+F16+G16)</f>
         <v>0.99991661107404939</v>
       </c>
@@ -1295,12 +1292,12 @@
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="12"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="11"/>
@@ -1320,7 +1317,7 @@
       <c r="G16" s="7">
         <v>0</v>
       </c>
-      <c r="H16" s="13"/>
+      <c r="H16" s="12"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
@@ -1345,7 +1342,7 @@
         <f>3602-F17</f>
         <v>9</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H17" s="12">
         <f>(F17+F18)/SUM(F17:G18)</f>
         <v>0.99891594396264172</v>
       </c>
@@ -1369,7 +1366,7 @@
       <c r="G18" s="4">
         <v>4</v>
       </c>
-      <c r="H18" s="13"/>
+      <c r="H18" s="12"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="11"/>
@@ -1437,7 +1434,7 @@
       <c r="G21" s="4">
         <v>0</v>
       </c>
-      <c r="H21" s="13">
+      <c r="H21" s="12">
         <f>(F21+F22)/SUM(F21:G22)</f>
         <v>0.99891594396264172</v>
       </c>
@@ -1460,7 +1457,7 @@
       <c r="G22" s="4">
         <v>13</v>
       </c>
-      <c r="H22" s="13"/>
+      <c r="H22" s="12"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="11"/>
@@ -1526,7 +1523,7 @@
       <c r="G25" s="4">
         <v>1</v>
       </c>
-      <c r="H25" s="13">
+      <c r="H25" s="12">
         <f>SUM(F25:F26)/SUM(F25:G26)</f>
         <v>0.99958305537024683</v>
       </c>
@@ -1549,7 +1546,7 @@
       <c r="G26" s="4">
         <v>4</v>
       </c>
-      <c r="H26" s="13"/>
+      <c r="H26" s="12"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="11"/>
@@ -1571,7 +1568,7 @@
       <c r="G27" s="4">
         <v>4</v>
       </c>
-      <c r="H27" s="13">
+      <c r="H27" s="12">
         <f>SUM(F27:F29)/SUM(F27:G29)</f>
         <v>0.99949966644429622</v>
       </c>
@@ -1594,7 +1591,7 @@
       <c r="G28" s="4">
         <v>0</v>
       </c>
-      <c r="H28" s="13"/>
+      <c r="H28" s="12"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="11"/>
@@ -1614,7 +1611,7 @@
       <c r="G29" s="4">
         <v>2</v>
       </c>
-      <c r="H29" s="13"/>
+      <c r="H29" s="12"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="11"/>
@@ -1643,19 +1640,19 @@
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="13" t="s">
         <v>89</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="F31" s="12">
+      <c r="F31" s="13">
         <v>71</v>
       </c>
-      <c r="G31" s="12">
+      <c r="G31" s="13">
         <v>0</v>
       </c>
       <c r="H31" s="14">
@@ -1665,31 +1662,31 @@
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
       <c r="E32" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
       <c r="H32" s="14"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
-      <c r="C33" s="12" t="s">
+      <c r="C33" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="D33" s="13" t="s">
         <v>93</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F33" s="12">
+      <c r="F33" s="13">
         <v>25</v>
       </c>
-      <c r="G33" s="12">
+      <c r="G33" s="13">
         <v>0</v>
       </c>
       <c r="H33" s="14">
@@ -1699,13 +1696,13 @@
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
       <c r="E34" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
       <c r="H34" s="14"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -1734,22 +1731,22 @@
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
-      <c r="C36" s="12" t="s">
+      <c r="C36" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="D36" s="13" t="s">
         <v>73</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="F36" s="12">
+      <c r="F36" s="13">
         <v>10969</v>
       </c>
-      <c r="G36" s="12">
+      <c r="G36" s="13">
         <v>4</v>
       </c>
-      <c r="H36" s="13">
+      <c r="H36" s="12">
         <f>F36/SUM(F36:G37)</f>
         <v>0.99963546887815546</v>
       </c>
@@ -1757,14 +1754,14 @@
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
       <c r="E37" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="12"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="11"/>
@@ -1786,7 +1783,7 @@
       <c r="G38" s="4">
         <v>5</v>
       </c>
-      <c r="H38" s="13">
+      <c r="H38" s="12">
         <f>SUM(F38:F40)/SUM(F38:G40)</f>
         <v>0.9993044083123207</v>
       </c>
@@ -1809,7 +1806,7 @@
       <c r="G39" s="4">
         <v>0</v>
       </c>
-      <c r="H39" s="13"/>
+      <c r="H39" s="12"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="11"/>
@@ -1830,7 +1827,7 @@
       <c r="G40" s="4">
         <v>3</v>
       </c>
-      <c r="H40" s="13"/>
+      <c r="H40" s="12"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="11"/>
@@ -1852,7 +1849,7 @@
       <c r="G41" s="4">
         <v>7</v>
       </c>
-      <c r="H41" s="13">
+      <c r="H41" s="12">
         <f>SUM(F41:F43)/SUM(F41:G43)</f>
         <v>0.99858250646210289</v>
       </c>
@@ -1875,7 +1872,7 @@
       <c r="G42" s="4">
         <v>9</v>
       </c>
-      <c r="H42" s="13"/>
+      <c r="H42" s="12"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="11"/>
@@ -1895,7 +1892,7 @@
       <c r="G43" s="4">
         <v>1</v>
       </c>
-      <c r="H43" s="13"/>
+      <c r="H43" s="12"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="11"/>
@@ -1917,7 +1914,7 @@
       <c r="G44" s="4">
         <v>0</v>
       </c>
-      <c r="H44" s="13">
+      <c r="H44" s="12">
         <f>SUM(F44:F46)/SUM(F44:G46)</f>
         <v>1</v>
       </c>
@@ -1940,7 +1937,7 @@
       <c r="G45" s="4">
         <v>0</v>
       </c>
-      <c r="H45" s="13"/>
+      <c r="H45" s="12"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="11"/>
@@ -1960,7 +1957,7 @@
       <c r="G46" s="4">
         <v>0</v>
       </c>
-      <c r="H46" s="13"/>
+      <c r="H46" s="12"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="s">
@@ -1984,7 +1981,7 @@
       <c r="G47" s="4">
         <v>16</v>
       </c>
-      <c r="H47" s="13">
+      <c r="H47" s="12">
         <f>SUM(F47:F48)/SUM(F47:G48)</f>
         <v>0.99824883255503671</v>
       </c>
@@ -2008,7 +2005,7 @@
       <c r="G48" s="4">
         <v>5</v>
       </c>
-      <c r="H48" s="13"/>
+      <c r="H48" s="12"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="11"/>
@@ -2030,7 +2027,7 @@
       <c r="G49" s="4">
         <v>161</v>
       </c>
-      <c r="H49" s="13">
+      <c r="H49" s="12">
         <f>SUM(F49:F50)/SUM(F49:G50)</f>
         <v>0.98557371581054032</v>
       </c>
@@ -2053,7 +2050,7 @@
       <c r="G50" s="4">
         <v>12</v>
       </c>
-      <c r="H50" s="13"/>
+      <c r="H50" s="12"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="11" t="s">
@@ -2077,7 +2074,7 @@
       <c r="G51" s="4">
         <v>2</v>
       </c>
-      <c r="H51" s="13">
+      <c r="H51" s="12">
         <f>SUM(F51:F61)/SUM(F51:G61)</f>
         <v>0.99817745008698533</v>
       </c>
@@ -2100,7 +2097,7 @@
       <c r="G52" s="4">
         <v>1</v>
       </c>
-      <c r="H52" s="13"/>
+      <c r="H52" s="12"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="11"/>
@@ -2120,7 +2117,7 @@
       <c r="G53" s="4">
         <v>9</v>
       </c>
-      <c r="H53" s="13"/>
+      <c r="H53" s="12"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="11"/>
@@ -2140,7 +2137,7 @@
       <c r="G54" s="4">
         <v>1</v>
       </c>
-      <c r="H54" s="13"/>
+      <c r="H54" s="12"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="11"/>
@@ -2160,7 +2157,7 @@
       <c r="G55" s="4">
         <v>0</v>
       </c>
-      <c r="H55" s="13"/>
+      <c r="H55" s="12"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="11"/>
@@ -2180,7 +2177,7 @@
       <c r="G56" s="4">
         <v>0</v>
       </c>
-      <c r="H56" s="13"/>
+      <c r="H56" s="12"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="11"/>
@@ -2200,63 +2197,63 @@
       <c r="G57" s="4">
         <v>0</v>
       </c>
-      <c r="H57" s="13"/>
+      <c r="H57" s="12"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
-      <c r="C58" s="12" t="s">
+      <c r="C58" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="D58" s="12" t="s">
+      <c r="D58" s="13" t="s">
         <v>160</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="F58" s="12">
+      <c r="F58" s="13">
         <v>8283</v>
       </c>
-      <c r="G58" s="12">
+      <c r="G58" s="13">
         <v>9</v>
       </c>
-      <c r="H58" s="13"/>
+      <c r="H58" s="12"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
       <c r="E59" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="F59" s="12"/>
-      <c r="G59" s="12"/>
-      <c r="H59" s="13"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="12"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
       <c r="E60" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="F60" s="12"/>
-      <c r="G60" s="12"/>
-      <c r="H60" s="13"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="12"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="12"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
       <c r="E61" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="F61" s="12"/>
-      <c r="G61" s="12"/>
-      <c r="H61" s="13"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="12"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
@@ -2286,7 +2283,58 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="66">
+  <mergeCells count="67">
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A9:A16"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="F9:F12"/>
+    <mergeCell ref="G9:G12"/>
+    <mergeCell ref="H9:H13"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="B30:B37"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="A21:A46"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="C33:C34"/>
     <mergeCell ref="H5:H7"/>
     <mergeCell ref="A51:A61"/>
     <mergeCell ref="B51:B61"/>
@@ -2303,56 +2351,6 @@
     <mergeCell ref="B47:B48"/>
     <mergeCell ref="H47:H48"/>
     <mergeCell ref="B49:B50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="A21:A46"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="B30:B37"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="F9:F12"/>
-    <mergeCell ref="G9:G12"/>
-    <mergeCell ref="H9:H13"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A9:A16"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C9:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
